--- a/作业/2.2  第1题 结果CategoryInDoc20202220243.xlsx
+++ b/作业/2.2  第1题 结果CategoryInDoc20202220243.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestDir1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubRep2\Gitee500LinesEveryday\作业\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C925C3-DAE7-4944-BE39-FFB0FBD6F29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB8E539-1AB5-49C2-BC9D-74127AF63AB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="文档中的Category列表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">文档中的Category列表!$B$1:$B$4507</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">文档中的Category列表!$B$1:$B$4506</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t>Id</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>阶段</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>19</t>
@@ -1327,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2506,16 +2500,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>292</v>
-      </c>
-      <c r="B147" t="s">
-        <v>293</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:B4507" xr:uid="{0E7E6920-DBBF-465F-990F-A326F0744DDF}"/>
+  <autoFilter ref="B1:B4506" xr:uid="{0E7E6920-DBBF-465F-990F-A326F0744DDF}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
